--- a/data/trans_orig/Q20C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Provincia-trans_orig.xlsx
@@ -661,27 +661,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,47</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9,37</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,47</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,41</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>8,74</t>
         </is>
       </c>
     </row>
@@ -729,27 +729,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>2,83; 7,77</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 5,45</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6,0; 12,0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 5,45</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,0; 12,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 12,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 27,28</t>
+          <t>1,34; 27,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 8,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 19,43</t>
+          <t>3,7; 18,91</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>7,16</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 16,54</t>
+          <t>1,94; 16,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 31,08</t>
+          <t>2,23; 31,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,03; 15,48</t>
+          <t>3,05; 16,11</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>6,81</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 25,86</t>
+          <t>3,74; 25,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 11,11</t>
+          <t>2,75; 11,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 14,63</t>
+          <t>4,03; 14,81</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,2</t>
+          <t>2,58; 6,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 11,52</t>
+          <t>3,6; 11,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,49</t>
+          <t>2,44; 9,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,82</t>
+          <t>1,45; 6,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,27</t>
+          <t>3,19; 7,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 9,03</t>
+          <t>3,46; 9,04</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,44</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>6,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 24,47</t>
+          <t>2,97; 24,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 21,57</t>
+          <t>4,1; 21,54</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,63</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>11,92</t>
+          <t>12,06</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,89; 27,41</t>
+          <t>7,91; 27,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 15,56</t>
+          <t>4,24; 15,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,34; 22,25</t>
+          <t>7,35; 22,63</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>5,2</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 8,7</t>
+          <t>2,58; 8,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,42</t>
+          <t>3,5; 8,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,32</t>
+          <t>3,76; 7,45</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,95</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,81</t>
+          <t>1,61; 5,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,07</t>
+          <t>1,3; 4,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,51</t>
+          <t>1,78; 4,56</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>6,61</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,85</t>
+          <t>5,3; 10,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,3; 9,05</t>
+          <t>4,36; 9,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,16; 8,59</t>
+          <t>5,25; 8,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q20C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,77</t>
+          <t>3,07; 8,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 12,24</t>
+          <t>2,26; 11,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,99</t>
+          <t>5,21; 13,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 27,34</t>
+          <t>1,29; 27,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,24 +769,24 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,22</t>
+          <t>3,12; 8,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,86</t>
+          <t>3,61; 9,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 18,91</t>
+          <t>3,82; 19,86</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,78</t>
+          <t>0,59; 5,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 15,54</t>
+          <t>2,5; 17,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 25,81</t>
+          <t>3,39; 25,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 16,55</t>
+          <t>1,9; 17,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,75</t>
+          <t>2,51; 8,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,39</t>
+          <t>2,52; 6,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,93</t>
+          <t>2,1; 5,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 31,76</t>
+          <t>2,26; 28,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,12</t>
+          <t>2,58; 6,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 9,15</t>
+          <t>3,11; 8,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 16,16</t>
+          <t>3,72; 16,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 16,11</t>
+          <t>3,04; 16,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,0</t>
+          <t>1,0; 5,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 25,97</t>
+          <t>3,64; 19,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,17 +1029,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,32</t>
+          <t>2,0; 4,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 17,54</t>
+          <t>3,56; 17,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 11,17</t>
+          <t>2,72; 11,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,06</t>
+          <t>1,99; 4,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 14,81</t>
+          <t>4,04; 15,26</t>
         </is>
       </c>
     </row>
@@ -1154,52 +1154,52 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 9,38</t>
+          <t>4,39; 9,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,6; 11,53</t>
+          <t>3,81; 11,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,14</t>
+          <t>0,96; 5,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 9,4</t>
+          <t>2,28; 8,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 10,59</t>
+          <t>2,98; 10,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,73</t>
+          <t>1,6; 6,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,14</t>
+          <t>0,96; 5,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,56</t>
+          <t>3,17; 7,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 8,53</t>
+          <t>3,95; 8,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,04</t>
+          <t>3,38; 9,08</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 7,94</t>
+          <t>2,06; 7,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 15,2</t>
+          <t>1,35; 15,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 24,44</t>
+          <t>3,37; 30,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,66</t>
+          <t>2,39; 6,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1329,24 +1329,24 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,34</t>
+          <t>2,61; 6,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 14,05</t>
+          <t>2,84; 13,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 21,54</t>
+          <t>4,18; 21,74</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1434,59 +1434,59 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,33</t>
+          <t>1,82; 5,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,91; 27,89</t>
+          <t>7,76; 28,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,06</t>
+          <t>1,45; 4,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,94</t>
+          <t>1,98; 7,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,24</t>
+          <t>1,5; 5,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 15,46</t>
+          <t>4,23; 15,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 13,14</t>
+          <t>2,16; 13,5</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 13,03</t>
+          <t>1,23; 13,18</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,59</t>
+          <t>1,99; 4,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 22,63</t>
+          <t>7,39; 22,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,0; 23,58</t>
+          <t>7,42; 24,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,12; 17,18</t>
+          <t>5,28; 16,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 55,12</t>
+          <t>4,93; 41,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,74</t>
+          <t>2,55; 9,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,89</t>
+          <t>2,68; 5,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 11,29</t>
+          <t>4,72; 11,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,4</t>
+          <t>4,18; 8,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 8,41</t>
+          <t>3,74; 8,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 14,28</t>
+          <t>5,23; 12,75</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 11,44</t>
+          <t>5,85; 11,56</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,79; 27,01</t>
+          <t>5,79; 26,63</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,45</t>
+          <t>3,67; 7,49</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,88; 15,38</t>
+          <t>2,1; 16,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,42; 11,91</t>
+          <t>1,6; 12,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,69; 12,42</t>
+          <t>3,85; 12,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,82</t>
+          <t>1,52; 5,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,52; 14,68</t>
+          <t>3,7; 13,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,58; 11,67</t>
+          <t>4,61; 11,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,09; 15,57</t>
+          <t>4,21; 16,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,08</t>
+          <t>1,25; 4,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,95; 11,82</t>
+          <t>3,8; 12,07</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,39</t>
+          <t>4,29; 10,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,62; 11,77</t>
+          <t>4,79; 11,46</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,78; 4,56</t>
+          <t>1,9; 4,78</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,32</t>
+          <t>4,95; 12,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,87</t>
+          <t>4,03; 7,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,33; 14,17</t>
+          <t>5,69; 14,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,04</t>
+          <t>5,2; 10,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,13</t>
+          <t>3,37; 5,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,92</t>
+          <t>4,44; 6,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,92; 8,08</t>
+          <t>4,93; 8,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,36; 9,52</t>
+          <t>4,32; 9,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,7</t>
+          <t>4,4; 7,61</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,61</t>
+          <t>4,6; 6,76</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,92</t>
+          <t>5,71; 9,91</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,8</t>
+          <t>5,2; 8,54</t>
         </is>
       </c>
     </row>
